--- a/Timeline.xlsx
+++ b/Timeline.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20035" windowHeight="7839" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20035" windowHeight="7839"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
@@ -613,8 +613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AJ16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Z15" sqref="Z15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -1320,8 +1320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AJ16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AJ16" sqref="AJ16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>

--- a/Timeline.xlsx
+++ b/Timeline.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="24">
   <si>
     <t>Feb</t>
   </si>
@@ -78,9 +78,6 @@
     <t>Experiment Design</t>
   </si>
   <si>
-    <t>Literture Review</t>
-  </si>
-  <si>
     <t>Project Planning</t>
   </si>
   <si>
@@ -94,6 +91,12 @@
   </si>
   <si>
     <t>Test &amp; update emotional behaviours</t>
+  </si>
+  <si>
+    <t>Literture Review &amp; Write Up</t>
+  </si>
+  <si>
+    <t>Methodology Write Up</t>
   </si>
 </sst>
 </file>
@@ -262,7 +265,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -311,6 +314,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -611,10 +620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AJ16"/>
+  <dimension ref="B2:AJ17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -626,96 +635,96 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22"/>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="22"/>
-      <c r="AA2" s="22"/>
-      <c r="AB2" s="22"/>
-      <c r="AC2" s="22"/>
-      <c r="AD2" s="22"/>
-      <c r="AE2" s="22"/>
-      <c r="AF2" s="22"/>
-      <c r="AG2" s="22"/>
-      <c r="AH2" s="22"/>
-      <c r="AI2" s="22"/>
-      <c r="AJ2" s="23"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="24"/>
+      <c r="W2" s="24"/>
+      <c r="X2" s="24"/>
+      <c r="Y2" s="24"/>
+      <c r="Z2" s="24"/>
+      <c r="AA2" s="24"/>
+      <c r="AB2" s="24"/>
+      <c r="AC2" s="24"/>
+      <c r="AD2" s="24"/>
+      <c r="AE2" s="24"/>
+      <c r="AF2" s="24"/>
+      <c r="AG2" s="24"/>
+      <c r="AH2" s="24"/>
+      <c r="AI2" s="24"/>
+      <c r="AJ2" s="25"/>
     </row>
     <row r="3" spans="2:36" x14ac:dyDescent="0.3">
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="18" t="s">
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="18" t="s">
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="18" t="s">
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="18" t="s">
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19"/>
-      <c r="X3" s="19"/>
-      <c r="Y3" s="20"/>
-      <c r="Z3" s="18" t="s">
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="22"/>
+      <c r="Z3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="AA3" s="19"/>
-      <c r="AB3" s="19"/>
-      <c r="AC3" s="20"/>
-      <c r="AD3" s="18" t="s">
+      <c r="AA3" s="21"/>
+      <c r="AB3" s="21"/>
+      <c r="AC3" s="22"/>
+      <c r="AD3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="AE3" s="19"/>
-      <c r="AF3" s="19"/>
-      <c r="AG3" s="19"/>
-      <c r="AH3" s="20"/>
-      <c r="AI3" s="18" t="s">
+      <c r="AE3" s="21"/>
+      <c r="AF3" s="21"/>
+      <c r="AG3" s="21"/>
+      <c r="AH3" s="22"/>
+      <c r="AI3" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="AJ3" s="20"/>
+      <c r="AJ3" s="22"/>
     </row>
     <row r="4" spans="2:36" x14ac:dyDescent="0.3">
       <c r="C4" s="8">
@@ -864,7 +873,7 @@
     </row>
     <row r="6" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="7"/>
@@ -903,7 +912,7 @@
     </row>
     <row r="7" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="7"/>
@@ -911,7 +920,7 @@
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
+      <c r="I7" s="18"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
@@ -942,18 +951,18 @@
     </row>
     <row r="8" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
       <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
@@ -981,7 +990,7 @@
     </row>
     <row r="9" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="4"/>
@@ -989,15 +998,15 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
@@ -1020,7 +1029,7 @@
     </row>
     <row r="10" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="4"/>
@@ -1032,16 +1041,16 @@
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
       <c r="S10" s="7"/>
       <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
+      <c r="U10" s="18"/>
+      <c r="V10" s="18"/>
       <c r="W10" s="4"/>
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
@@ -1076,16 +1085,16 @@
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
       <c r="U11" s="7"/>
       <c r="V11" s="7"/>
       <c r="W11" s="7"/>
       <c r="X11" s="7"/>
-      <c r="Y11" s="7"/>
-      <c r="Z11" s="7"/>
-      <c r="AA11" s="7"/>
+      <c r="Y11" s="18"/>
+      <c r="Z11" s="18"/>
+      <c r="AA11" s="18"/>
       <c r="AB11" s="4"/>
       <c r="AC11" s="4"/>
       <c r="AD11" s="4"/>
@@ -1098,7 +1107,7 @@
     </row>
     <row r="12" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="4"/>
@@ -1119,14 +1128,13 @@
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
       <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="6" t="s">
+      <c r="V12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="15"/>
-      <c r="Z12" s="7"/>
-      <c r="AA12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="15"/>
+      <c r="Y12" s="7"/>
+      <c r="AA12" s="18"/>
       <c r="AB12" s="4"/>
       <c r="AC12" s="4"/>
       <c r="AD12" s="4"/>
@@ -1164,11 +1172,11 @@
       <c r="W13" s="4"/>
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
-      <c r="Z13" s="4"/>
-      <c r="AA13" s="4"/>
-      <c r="AB13" s="6" t="s">
+      <c r="Z13" s="6" t="s">
         <v>12</v>
       </c>
+      <c r="AA13" s="7"/>
+      <c r="AB13" s="7"/>
       <c r="AC13" s="7"/>
       <c r="AD13" s="7"/>
       <c r="AE13" s="4"/>
@@ -1180,48 +1188,46 @@
     </row>
     <row r="14" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4"/>
-      <c r="AA14" s="4"/>
-      <c r="AB14" s="4"/>
-      <c r="AC14" s="4"/>
-      <c r="AD14" s="6"/>
-      <c r="AE14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF14" s="4"/>
-      <c r="AG14" s="4"/>
-      <c r="AH14" s="4"/>
-      <c r="AI14" s="4"/>
-      <c r="AJ14" s="5"/>
+        <v>23</v>
+      </c>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="18"/>
+      <c r="U14" s="18"/>
+      <c r="V14" s="18"/>
+      <c r="W14" s="18"/>
+      <c r="X14" s="18"/>
+      <c r="Y14" s="18"/>
+      <c r="Z14" s="6"/>
+      <c r="AA14" s="7"/>
+      <c r="AB14" s="7"/>
+      <c r="AC14" s="7"/>
+      <c r="AD14" s="7"/>
+      <c r="AE14" s="18"/>
+      <c r="AF14" s="18"/>
+      <c r="AG14" s="18"/>
+      <c r="AH14" s="18"/>
+      <c r="AI14" s="18"/>
+      <c r="AJ14" s="19"/>
     </row>
     <row r="15" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -1250,17 +1256,19 @@
       <c r="AA15" s="4"/>
       <c r="AB15" s="4"/>
       <c r="AC15" s="4"/>
-      <c r="AD15" s="6"/>
+      <c r="AD15" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="AE15" s="6"/>
-      <c r="AF15" s="7"/>
-      <c r="AG15" s="7"/>
-      <c r="AH15" s="7"/>
-      <c r="AI15" s="7"/>
+      <c r="AF15" s="4"/>
+      <c r="AG15" s="4"/>
+      <c r="AH15" s="4"/>
+      <c r="AI15" s="4"/>
       <c r="AJ15" s="5"/>
     </row>
     <row r="16" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -1289,13 +1297,52 @@
       <c r="AA16" s="4"/>
       <c r="AB16" s="4"/>
       <c r="AC16" s="4"/>
-      <c r="AD16" s="4"/>
-      <c r="AE16" s="4"/>
-      <c r="AF16" s="4"/>
-      <c r="AG16" s="4"/>
-      <c r="AH16" s="4"/>
-      <c r="AI16" s="4"/>
-      <c r="AJ16" s="14" t="s">
+      <c r="AD16" s="6"/>
+      <c r="AE16" s="7"/>
+      <c r="AF16" s="7"/>
+      <c r="AG16" s="7"/>
+      <c r="AH16" s="7"/>
+      <c r="AI16" s="7"/>
+      <c r="AJ16" s="5"/>
+    </row>
+    <row r="17" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="4"/>
+      <c r="AB17" s="4"/>
+      <c r="AC17" s="4"/>
+      <c r="AD17" s="4"/>
+      <c r="AE17" s="4"/>
+      <c r="AF17" s="4"/>
+      <c r="AG17" s="4"/>
+      <c r="AH17" s="4"/>
+      <c r="AI17" s="4"/>
+      <c r="AJ17" s="14" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1318,10 +1365,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AJ16"/>
+  <dimension ref="B2:AJ17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -1333,96 +1380,96 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22"/>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="22"/>
-      <c r="AA2" s="22"/>
-      <c r="AB2" s="22"/>
-      <c r="AC2" s="22"/>
-      <c r="AD2" s="22"/>
-      <c r="AE2" s="22"/>
-      <c r="AF2" s="22"/>
-      <c r="AG2" s="22"/>
-      <c r="AH2" s="22"/>
-      <c r="AI2" s="22"/>
-      <c r="AJ2" s="23"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="24"/>
+      <c r="W2" s="24"/>
+      <c r="X2" s="24"/>
+      <c r="Y2" s="24"/>
+      <c r="Z2" s="24"/>
+      <c r="AA2" s="24"/>
+      <c r="AB2" s="24"/>
+      <c r="AC2" s="24"/>
+      <c r="AD2" s="24"/>
+      <c r="AE2" s="24"/>
+      <c r="AF2" s="24"/>
+      <c r="AG2" s="24"/>
+      <c r="AH2" s="24"/>
+      <c r="AI2" s="24"/>
+      <c r="AJ2" s="25"/>
     </row>
     <row r="3" spans="2:36" x14ac:dyDescent="0.3">
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="18" t="s">
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="18" t="s">
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="18" t="s">
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="18" t="s">
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19"/>
-      <c r="X3" s="19"/>
-      <c r="Y3" s="20"/>
-      <c r="Z3" s="18" t="s">
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="22"/>
+      <c r="Z3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="AA3" s="19"/>
-      <c r="AB3" s="19"/>
-      <c r="AC3" s="20"/>
-      <c r="AD3" s="18" t="s">
+      <c r="AA3" s="21"/>
+      <c r="AB3" s="21"/>
+      <c r="AC3" s="22"/>
+      <c r="AD3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="AE3" s="19"/>
-      <c r="AF3" s="19"/>
-      <c r="AG3" s="19"/>
-      <c r="AH3" s="20"/>
-      <c r="AI3" s="18" t="s">
+      <c r="AE3" s="21"/>
+      <c r="AF3" s="21"/>
+      <c r="AG3" s="21"/>
+      <c r="AH3" s="22"/>
+      <c r="AI3" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="AJ3" s="20"/>
+      <c r="AJ3" s="22"/>
     </row>
     <row r="4" spans="2:36" x14ac:dyDescent="0.3">
       <c r="C4" s="8">
@@ -1535,474 +1582,512 @@
       <c r="C5" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="4"/>
-      <c r="AA5" s="4"/>
-      <c r="AB5" s="4"/>
-      <c r="AC5" s="4"/>
-      <c r="AD5" s="4"/>
-      <c r="AE5" s="4"/>
-      <c r="AF5" s="4"/>
-      <c r="AG5" s="4"/>
-      <c r="AH5" s="4"/>
-      <c r="AI5" s="4"/>
-      <c r="AJ5" s="5"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="18"/>
+      <c r="W5" s="18"/>
+      <c r="X5" s="18"/>
+      <c r="Y5" s="18"/>
+      <c r="Z5" s="18"/>
+      <c r="AA5" s="18"/>
+      <c r="AB5" s="18"/>
+      <c r="AC5" s="18"/>
+      <c r="AD5" s="18"/>
+      <c r="AE5" s="18"/>
+      <c r="AF5" s="18"/>
+      <c r="AG5" s="18"/>
+      <c r="AH5" s="18"/>
+      <c r="AI5" s="18"/>
+      <c r="AJ5" s="19"/>
     </row>
     <row r="6" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="16"/>
-      <c r="E6" s="7"/>
+      <c r="E6" s="16"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4"/>
-      <c r="AA6" s="4"/>
-      <c r="AB6" s="4"/>
-      <c r="AC6" s="4"/>
-      <c r="AD6" s="4"/>
-      <c r="AE6" s="4"/>
-      <c r="AF6" s="4"/>
-      <c r="AG6" s="4"/>
-      <c r="AH6" s="4"/>
-      <c r="AI6" s="4"/>
-      <c r="AJ6" s="5"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="18"/>
+      <c r="X6" s="18"/>
+      <c r="Y6" s="18"/>
+      <c r="Z6" s="18"/>
+      <c r="AA6" s="18"/>
+      <c r="AB6" s="18"/>
+      <c r="AC6" s="18"/>
+      <c r="AD6" s="18"/>
+      <c r="AE6" s="18"/>
+      <c r="AF6" s="18"/>
+      <c r="AG6" s="18"/>
+      <c r="AH6" s="18"/>
+      <c r="AI6" s="18"/>
+      <c r="AJ6" s="19"/>
     </row>
     <row r="7" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="16"/>
-      <c r="E7" s="7"/>
+      <c r="E7" s="16"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
-      <c r="AA7" s="4"/>
-      <c r="AB7" s="4"/>
-      <c r="AC7" s="4"/>
-      <c r="AD7" s="4"/>
-      <c r="AE7" s="4"/>
-      <c r="AF7" s="4"/>
-      <c r="AG7" s="4"/>
-      <c r="AH7" s="4"/>
-      <c r="AI7" s="4"/>
-      <c r="AJ7" s="5"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="18"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="18"/>
+      <c r="X7" s="18"/>
+      <c r="Y7" s="18"/>
+      <c r="Z7" s="18"/>
+      <c r="AA7" s="18"/>
+      <c r="AB7" s="18"/>
+      <c r="AC7" s="18"/>
+      <c r="AD7" s="18"/>
+      <c r="AE7" s="18"/>
+      <c r="AF7" s="18"/>
+      <c r="AG7" s="18"/>
+      <c r="AH7" s="18"/>
+      <c r="AI7" s="18"/>
+      <c r="AJ7" s="19"/>
     </row>
     <row r="8" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="6"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
       <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
-      <c r="AA8" s="4"/>
-      <c r="AB8" s="4"/>
-      <c r="AC8" s="4"/>
-      <c r="AD8" s="4"/>
-      <c r="AE8" s="4"/>
-      <c r="AF8" s="4"/>
-      <c r="AG8" s="4"/>
-      <c r="AH8" s="4"/>
-      <c r="AI8" s="4"/>
-      <c r="AJ8" s="5"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="18"/>
+      <c r="W8" s="18"/>
+      <c r="X8" s="18"/>
+      <c r="Y8" s="18"/>
+      <c r="Z8" s="18"/>
+      <c r="AA8" s="18"/>
+      <c r="AB8" s="18"/>
+      <c r="AC8" s="18"/>
+      <c r="AD8" s="18"/>
+      <c r="AE8" s="18"/>
+      <c r="AF8" s="18"/>
+      <c r="AG8" s="18"/>
+      <c r="AH8" s="18"/>
+      <c r="AI8" s="18"/>
+      <c r="AJ8" s="19"/>
     </row>
     <row r="9" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="6"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="4"/>
-      <c r="AA9" s="4"/>
-      <c r="AB9" s="4"/>
-      <c r="AC9" s="4"/>
-      <c r="AD9" s="4"/>
-      <c r="AE9" s="4"/>
-      <c r="AF9" s="4"/>
-      <c r="AG9" s="4"/>
-      <c r="AH9" s="4"/>
-      <c r="AI9" s="4"/>
-      <c r="AJ9" s="5"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="18"/>
+      <c r="V9" s="18"/>
+      <c r="W9" s="18"/>
+      <c r="X9" s="18"/>
+      <c r="Y9" s="18"/>
+      <c r="Z9" s="18"/>
+      <c r="AA9" s="18"/>
+      <c r="AB9" s="18"/>
+      <c r="AC9" s="18"/>
+      <c r="AD9" s="18"/>
+      <c r="AE9" s="18"/>
+      <c r="AF9" s="18"/>
+      <c r="AG9" s="18"/>
+      <c r="AH9" s="18"/>
+      <c r="AI9" s="18"/>
+      <c r="AJ9" s="19"/>
     </row>
     <row r="10" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="6"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
       <c r="S10" s="7"/>
       <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="4"/>
-      <c r="Z10" s="4"/>
-      <c r="AA10" s="4"/>
-      <c r="AB10" s="4"/>
-      <c r="AC10" s="4"/>
-      <c r="AD10" s="4"/>
-      <c r="AE10" s="4"/>
-      <c r="AF10" s="4"/>
-      <c r="AG10" s="4"/>
-      <c r="AH10" s="4"/>
-      <c r="AI10" s="4"/>
-      <c r="AJ10" s="5"/>
+      <c r="U10" s="18"/>
+      <c r="V10" s="18"/>
+      <c r="W10" s="18"/>
+      <c r="X10" s="18"/>
+      <c r="Y10" s="18"/>
+      <c r="Z10" s="18"/>
+      <c r="AA10" s="18"/>
+      <c r="AB10" s="18"/>
+      <c r="AC10" s="18"/>
+      <c r="AD10" s="18"/>
+      <c r="AE10" s="18"/>
+      <c r="AF10" s="18"/>
+      <c r="AG10" s="18"/>
+      <c r="AH10" s="18"/>
+      <c r="AI10" s="18"/>
+      <c r="AJ10" s="19"/>
     </row>
     <row r="11" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="6"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
       <c r="U11" s="7"/>
       <c r="V11" s="7"/>
       <c r="W11" s="7"/>
       <c r="X11" s="7"/>
-      <c r="Y11" s="7"/>
-      <c r="Z11" s="7"/>
-      <c r="AA11" s="7"/>
-      <c r="AB11" s="4"/>
-      <c r="AC11" s="4"/>
-      <c r="AD11" s="4"/>
-      <c r="AE11" s="4"/>
-      <c r="AF11" s="4"/>
-      <c r="AG11" s="4"/>
-      <c r="AH11" s="4"/>
-      <c r="AI11" s="4"/>
-      <c r="AJ11" s="5"/>
+      <c r="Y11" s="18"/>
+      <c r="Z11" s="18"/>
+      <c r="AA11" s="18"/>
+      <c r="AB11" s="18"/>
+      <c r="AC11" s="18"/>
+      <c r="AD11" s="18"/>
+      <c r="AE11" s="18"/>
+      <c r="AF11" s="18"/>
+      <c r="AG11" s="18"/>
+      <c r="AH11" s="18"/>
+      <c r="AI11" s="18"/>
+      <c r="AJ11" s="19"/>
     </row>
     <row r="12" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="6"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="6" t="s">
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="18"/>
+      <c r="U12" s="18"/>
+      <c r="V12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="15"/>
-      <c r="Z12" s="7"/>
-      <c r="AA12" s="7"/>
-      <c r="AB12" s="4"/>
-      <c r="AC12" s="4"/>
-      <c r="AD12" s="4"/>
-      <c r="AE12" s="4"/>
-      <c r="AF12" s="4"/>
-      <c r="AG12" s="4"/>
-      <c r="AH12" s="4"/>
-      <c r="AI12" s="4"/>
-      <c r="AJ12" s="5"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="15"/>
+      <c r="Y12" s="7"/>
+      <c r="AA12" s="18"/>
+      <c r="AB12" s="18"/>
+      <c r="AC12" s="18"/>
+      <c r="AD12" s="18"/>
+      <c r="AE12" s="18"/>
+      <c r="AF12" s="18"/>
+      <c r="AG12" s="18"/>
+      <c r="AH12" s="18"/>
+      <c r="AI12" s="18"/>
+      <c r="AJ12" s="19"/>
     </row>
     <row r="13" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="4"/>
-      <c r="Z13" s="4"/>
-      <c r="AA13" s="4"/>
-      <c r="AB13" s="6" t="s">
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="18"/>
+      <c r="U13" s="18"/>
+      <c r="V13" s="18"/>
+      <c r="W13" s="18"/>
+      <c r="X13" s="18"/>
+      <c r="Y13" s="18"/>
+      <c r="Z13" s="6" t="s">
         <v>12</v>
       </c>
+      <c r="AA13" s="7"/>
+      <c r="AB13" s="7"/>
       <c r="AC13" s="7"/>
       <c r="AD13" s="7"/>
-      <c r="AE13" s="4"/>
-      <c r="AF13" s="4"/>
-      <c r="AG13" s="4"/>
-      <c r="AH13" s="4"/>
-      <c r="AI13" s="4"/>
-      <c r="AJ13" s="5"/>
+      <c r="AE13" s="18"/>
+      <c r="AF13" s="18"/>
+      <c r="AG13" s="18"/>
+      <c r="AH13" s="18"/>
+      <c r="AI13" s="18"/>
+      <c r="AJ13" s="19"/>
     </row>
     <row r="14" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4"/>
-      <c r="AA14" s="4"/>
-      <c r="AB14" s="4"/>
-      <c r="AC14" s="4"/>
-      <c r="AD14" s="6"/>
-      <c r="AE14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF14" s="4"/>
-      <c r="AG14" s="4"/>
-      <c r="AH14" s="4"/>
-      <c r="AI14" s="4"/>
-      <c r="AJ14" s="5"/>
+        <v>23</v>
+      </c>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="18"/>
+      <c r="U14" s="18"/>
+      <c r="V14" s="18"/>
+      <c r="W14" s="18"/>
+      <c r="X14" s="18"/>
+      <c r="Y14" s="18"/>
+      <c r="Z14" s="6"/>
+      <c r="AA14" s="7"/>
+      <c r="AB14" s="7"/>
+      <c r="AC14" s="7"/>
+      <c r="AD14" s="7"/>
+      <c r="AE14" s="18"/>
+      <c r="AF14" s="18"/>
+      <c r="AG14" s="18"/>
+      <c r="AH14" s="18"/>
+      <c r="AI14" s="18"/>
+      <c r="AJ14" s="19"/>
     </row>
     <row r="15" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="4"/>
-      <c r="AA15" s="4"/>
-      <c r="AB15" s="4"/>
-      <c r="AC15" s="4"/>
-      <c r="AD15" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="18"/>
+      <c r="U15" s="18"/>
+      <c r="V15" s="18"/>
+      <c r="W15" s="18"/>
+      <c r="X15" s="18"/>
+      <c r="Y15" s="18"/>
+      <c r="Z15" s="18"/>
+      <c r="AA15" s="18"/>
+      <c r="AB15" s="18"/>
+      <c r="AC15" s="18"/>
+      <c r="AD15" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="AE15" s="6"/>
-      <c r="AF15" s="7"/>
-      <c r="AG15" s="7"/>
-      <c r="AH15" s="7"/>
-      <c r="AI15" s="7"/>
-      <c r="AJ15" s="5"/>
+      <c r="AF15" s="18"/>
+      <c r="AG15" s="18"/>
+      <c r="AH15" s="18"/>
+      <c r="AI15" s="18"/>
+      <c r="AJ15" s="19"/>
     </row>
     <row r="16" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="18"/>
+      <c r="T16" s="18"/>
+      <c r="U16" s="18"/>
+      <c r="V16" s="18"/>
+      <c r="W16" s="18"/>
+      <c r="X16" s="18"/>
+      <c r="Y16" s="18"/>
+      <c r="Z16" s="18"/>
+      <c r="AA16" s="18"/>
+      <c r="AB16" s="18"/>
+      <c r="AC16" s="18"/>
+      <c r="AD16" s="6"/>
+      <c r="AE16" s="7"/>
+      <c r="AF16" s="7"/>
+      <c r="AG16" s="7"/>
+      <c r="AH16" s="7"/>
+      <c r="AI16" s="7"/>
+      <c r="AJ16" s="19"/>
+    </row>
+    <row r="17" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
-      <c r="Z16" s="4"/>
-      <c r="AA16" s="4"/>
-      <c r="AB16" s="4"/>
-      <c r="AC16" s="4"/>
-      <c r="AD16" s="4"/>
-      <c r="AE16" s="4"/>
-      <c r="AF16" s="4"/>
-      <c r="AG16" s="4"/>
-      <c r="AH16" s="4"/>
-      <c r="AI16" s="4"/>
-      <c r="AJ16" s="14" t="s">
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="18"/>
+      <c r="T17" s="18"/>
+      <c r="U17" s="18"/>
+      <c r="V17" s="18"/>
+      <c r="W17" s="18"/>
+      <c r="X17" s="18"/>
+      <c r="Y17" s="18"/>
+      <c r="Z17" s="18"/>
+      <c r="AA17" s="18"/>
+      <c r="AB17" s="18"/>
+      <c r="AC17" s="18"/>
+      <c r="AD17" s="18"/>
+      <c r="AE17" s="18"/>
+      <c r="AF17" s="18"/>
+      <c r="AG17" s="18"/>
+      <c r="AH17" s="18"/>
+      <c r="AI17" s="18"/>
+      <c r="AJ17" s="14" t="s">
         <v>12</v>
       </c>
     </row>

--- a/Timeline.xlsx
+++ b/Timeline.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20035" windowHeight="7839"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20035" windowHeight="7839" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
@@ -81,12 +81,6 @@
     <t>Project Planning</t>
   </si>
   <si>
-    <t>Design emotional behaviours</t>
-  </si>
-  <si>
-    <t>Implement emotional behaviours</t>
-  </si>
-  <si>
     <t>System Familiarisation</t>
   </si>
   <si>
@@ -97,6 +91,12 @@
   </si>
   <si>
     <t>Methodology Write Up</t>
+  </si>
+  <si>
+    <t>Design emotional behaviour system</t>
+  </si>
+  <si>
+    <t>Implement emotional behaviour system</t>
   </si>
 </sst>
 </file>
@@ -265,7 +265,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -314,6 +314,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -622,109 +628,109 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AJ17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="11" width="3" style="1" customWidth="1"/>
     <col min="12" max="36" width="3" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24"/>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="24"/>
-      <c r="AA2" s="24"/>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="24"/>
-      <c r="AF2" s="24"/>
-      <c r="AG2" s="24"/>
-      <c r="AH2" s="24"/>
-      <c r="AI2" s="24"/>
-      <c r="AJ2" s="25"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="26"/>
+      <c r="AF2" s="26"/>
+      <c r="AG2" s="26"/>
+      <c r="AH2" s="26"/>
+      <c r="AI2" s="26"/>
+      <c r="AJ2" s="27"/>
     </row>
     <row r="3" spans="2:36" x14ac:dyDescent="0.3">
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="20" t="s">
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="20" t="s">
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="20" t="s">
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="22"/>
-      <c r="U3" s="20" t="s">
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="V3" s="21"/>
-      <c r="W3" s="21"/>
-      <c r="X3" s="21"/>
-      <c r="Y3" s="22"/>
-      <c r="Z3" s="20" t="s">
+      <c r="V3" s="23"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="24"/>
+      <c r="Z3" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="AA3" s="21"/>
-      <c r="AB3" s="21"/>
-      <c r="AC3" s="22"/>
-      <c r="AD3" s="20" t="s">
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="23"/>
+      <c r="AC3" s="24"/>
+      <c r="AD3" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="AE3" s="21"/>
-      <c r="AF3" s="21"/>
-      <c r="AG3" s="21"/>
-      <c r="AH3" s="22"/>
-      <c r="AI3" s="20" t="s">
+      <c r="AE3" s="23"/>
+      <c r="AF3" s="23"/>
+      <c r="AG3" s="23"/>
+      <c r="AH3" s="24"/>
+      <c r="AI3" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="AJ3" s="22"/>
+      <c r="AJ3" s="24"/>
     </row>
     <row r="4" spans="2:36" x14ac:dyDescent="0.3">
       <c r="C4" s="8">
@@ -912,7 +918,7 @@
     </row>
     <row r="7" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="7"/>
@@ -920,7 +926,7 @@
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
-      <c r="I7" s="18"/>
+      <c r="I7" s="7"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
@@ -951,7 +957,7 @@
     </row>
     <row r="8" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="4"/>
@@ -960,7 +966,7 @@
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
-      <c r="J8" s="18"/>
+      <c r="J8" s="7"/>
       <c r="K8" s="18"/>
       <c r="L8" s="18"/>
       <c r="M8" s="4"/>
@@ -990,7 +996,7 @@
     </row>
     <row r="9" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="4"/>
@@ -998,13 +1004,13 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
-      <c r="I9" s="7"/>
+      <c r="I9" s="20"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
-      <c r="O9" s="18"/>
+      <c r="O9" s="7"/>
       <c r="P9" s="18"/>
       <c r="Q9" s="18"/>
       <c r="R9" s="4"/>
@@ -1029,7 +1035,7 @@
     </row>
     <row r="10" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="4"/>
@@ -1041,7 +1047,7 @@
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
-      <c r="M10" s="7"/>
+      <c r="M10" s="20"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
@@ -1049,7 +1055,7 @@
       <c r="R10" s="7"/>
       <c r="S10" s="7"/>
       <c r="T10" s="7"/>
-      <c r="U10" s="18"/>
+      <c r="U10" s="7"/>
       <c r="V10" s="18"/>
       <c r="W10" s="4"/>
       <c r="X10" s="4"/>
@@ -1086,7 +1092,7 @@
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
       <c r="R11" s="18"/>
-      <c r="S11" s="7"/>
+      <c r="S11" s="20"/>
       <c r="T11" s="7"/>
       <c r="U11" s="7"/>
       <c r="V11" s="7"/>
@@ -1107,7 +1113,7 @@
     </row>
     <row r="12" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="4"/>
@@ -1188,7 +1194,7 @@
     </row>
     <row r="14" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
@@ -1367,109 +1373,109 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AJ17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="11" width="3" style="1" customWidth="1"/>
     <col min="12" max="36" width="3" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24"/>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="24"/>
-      <c r="AA2" s="24"/>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="24"/>
-      <c r="AF2" s="24"/>
-      <c r="AG2" s="24"/>
-      <c r="AH2" s="24"/>
-      <c r="AI2" s="24"/>
-      <c r="AJ2" s="25"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="26"/>
+      <c r="AF2" s="26"/>
+      <c r="AG2" s="26"/>
+      <c r="AH2" s="26"/>
+      <c r="AI2" s="26"/>
+      <c r="AJ2" s="27"/>
     </row>
     <row r="3" spans="2:36" x14ac:dyDescent="0.3">
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="20" t="s">
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="20" t="s">
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="20" t="s">
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="22"/>
-      <c r="U3" s="20" t="s">
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="V3" s="21"/>
-      <c r="W3" s="21"/>
-      <c r="X3" s="21"/>
-      <c r="Y3" s="22"/>
-      <c r="Z3" s="20" t="s">
+      <c r="V3" s="23"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="24"/>
+      <c r="Z3" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="AA3" s="21"/>
-      <c r="AB3" s="21"/>
-      <c r="AC3" s="22"/>
-      <c r="AD3" s="20" t="s">
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="23"/>
+      <c r="AC3" s="24"/>
+      <c r="AD3" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="AE3" s="21"/>
-      <c r="AF3" s="21"/>
-      <c r="AG3" s="21"/>
-      <c r="AH3" s="22"/>
-      <c r="AI3" s="20" t="s">
+      <c r="AE3" s="23"/>
+      <c r="AF3" s="23"/>
+      <c r="AG3" s="23"/>
+      <c r="AH3" s="24"/>
+      <c r="AI3" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="AJ3" s="22"/>
+      <c r="AJ3" s="24"/>
     </row>
     <row r="4" spans="2:36" x14ac:dyDescent="0.3">
       <c r="C4" s="8">
@@ -1584,37 +1590,37 @@
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="18"/>
-      <c r="U5" s="18"/>
-      <c r="V5" s="18"/>
-      <c r="W5" s="18"/>
-      <c r="X5" s="18"/>
-      <c r="Y5" s="18"/>
-      <c r="Z5" s="18"/>
-      <c r="AA5" s="18"/>
-      <c r="AB5" s="18"/>
-      <c r="AC5" s="18"/>
-      <c r="AD5" s="18"/>
-      <c r="AE5" s="18"/>
-      <c r="AF5" s="18"/>
-      <c r="AG5" s="18"/>
-      <c r="AH5" s="18"/>
-      <c r="AI5" s="18"/>
-      <c r="AJ5" s="19"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="20"/>
+      <c r="W5" s="20"/>
+      <c r="X5" s="20"/>
+      <c r="Y5" s="20"/>
+      <c r="Z5" s="20"/>
+      <c r="AA5" s="20"/>
+      <c r="AB5" s="20"/>
+      <c r="AC5" s="20"/>
+      <c r="AD5" s="20"/>
+      <c r="AE5" s="20"/>
+      <c r="AF5" s="20"/>
+      <c r="AG5" s="20"/>
+      <c r="AH5" s="20"/>
+      <c r="AI5" s="20"/>
+      <c r="AJ5" s="21"/>
     </row>
     <row r="6" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
@@ -1624,40 +1630,40 @@
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="18"/>
-      <c r="V6" s="18"/>
-      <c r="W6" s="18"/>
-      <c r="X6" s="18"/>
-      <c r="Y6" s="18"/>
-      <c r="Z6" s="18"/>
-      <c r="AA6" s="18"/>
-      <c r="AB6" s="18"/>
-      <c r="AC6" s="18"/>
-      <c r="AD6" s="18"/>
-      <c r="AE6" s="18"/>
-      <c r="AF6" s="18"/>
-      <c r="AG6" s="18"/>
-      <c r="AH6" s="18"/>
-      <c r="AI6" s="18"/>
-      <c r="AJ6" s="19"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="20"/>
+      <c r="V6" s="20"/>
+      <c r="W6" s="20"/>
+      <c r="X6" s="20"/>
+      <c r="Y6" s="20"/>
+      <c r="Z6" s="20"/>
+      <c r="AA6" s="20"/>
+      <c r="AB6" s="20"/>
+      <c r="AC6" s="20"/>
+      <c r="AD6" s="20"/>
+      <c r="AE6" s="20"/>
+      <c r="AF6" s="20"/>
+      <c r="AG6" s="20"/>
+      <c r="AH6" s="20"/>
+      <c r="AI6" s="20"/>
+      <c r="AJ6" s="21"/>
     </row>
     <row r="7" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="16"/>
@@ -1665,128 +1671,128 @@
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="18"/>
-      <c r="S7" s="18"/>
-      <c r="T7" s="18"/>
-      <c r="U7" s="18"/>
-      <c r="V7" s="18"/>
-      <c r="W7" s="18"/>
-      <c r="X7" s="18"/>
-      <c r="Y7" s="18"/>
-      <c r="Z7" s="18"/>
-      <c r="AA7" s="18"/>
-      <c r="AB7" s="18"/>
-      <c r="AC7" s="18"/>
-      <c r="AD7" s="18"/>
-      <c r="AE7" s="18"/>
-      <c r="AF7" s="18"/>
-      <c r="AG7" s="18"/>
-      <c r="AH7" s="18"/>
-      <c r="AI7" s="18"/>
-      <c r="AJ7" s="19"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="20"/>
+      <c r="W7" s="20"/>
+      <c r="X7" s="20"/>
+      <c r="Y7" s="20"/>
+      <c r="Z7" s="20"/>
+      <c r="AA7" s="20"/>
+      <c r="AB7" s="20"/>
+      <c r="AC7" s="20"/>
+      <c r="AD7" s="20"/>
+      <c r="AE7" s="20"/>
+      <c r="AF7" s="20"/>
+      <c r="AG7" s="20"/>
+      <c r="AH7" s="20"/>
+      <c r="AI7" s="20"/>
+      <c r="AJ7" s="21"/>
     </row>
     <row r="8" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
+      <c r="F8" s="20"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="18"/>
-      <c r="S8" s="18"/>
-      <c r="T8" s="18"/>
-      <c r="U8" s="18"/>
-      <c r="V8" s="18"/>
-      <c r="W8" s="18"/>
-      <c r="X8" s="18"/>
-      <c r="Y8" s="18"/>
-      <c r="Z8" s="18"/>
-      <c r="AA8" s="18"/>
-      <c r="AB8" s="18"/>
-      <c r="AC8" s="18"/>
-      <c r="AD8" s="18"/>
-      <c r="AE8" s="18"/>
-      <c r="AF8" s="18"/>
-      <c r="AG8" s="18"/>
-      <c r="AH8" s="18"/>
-      <c r="AI8" s="18"/>
-      <c r="AJ8" s="19"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="20"/>
+      <c r="X8" s="20"/>
+      <c r="Y8" s="20"/>
+      <c r="Z8" s="20"/>
+      <c r="AA8" s="20"/>
+      <c r="AB8" s="20"/>
+      <c r="AC8" s="20"/>
+      <c r="AD8" s="20"/>
+      <c r="AE8" s="20"/>
+      <c r="AF8" s="20"/>
+      <c r="AG8" s="20"/>
+      <c r="AH8" s="20"/>
+      <c r="AI8" s="20"/>
+      <c r="AJ8" s="21"/>
     </row>
     <row r="9" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="7"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="18"/>
-      <c r="U9" s="18"/>
-      <c r="V9" s="18"/>
-      <c r="W9" s="18"/>
-      <c r="X9" s="18"/>
-      <c r="Y9" s="18"/>
-      <c r="Z9" s="18"/>
-      <c r="AA9" s="18"/>
-      <c r="AB9" s="18"/>
-      <c r="AC9" s="18"/>
-      <c r="AD9" s="18"/>
-      <c r="AE9" s="18"/>
-      <c r="AF9" s="18"/>
-      <c r="AG9" s="18"/>
-      <c r="AH9" s="18"/>
-      <c r="AI9" s="18"/>
-      <c r="AJ9" s="19"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="20"/>
+      <c r="W9" s="20"/>
+      <c r="X9" s="20"/>
+      <c r="Y9" s="20"/>
+      <c r="Z9" s="20"/>
+      <c r="AA9" s="20"/>
+      <c r="AB9" s="20"/>
+      <c r="AC9" s="20"/>
+      <c r="AD9" s="20"/>
+      <c r="AE9" s="20"/>
+      <c r="AF9" s="20"/>
+      <c r="AG9" s="20"/>
+      <c r="AH9" s="20"/>
+      <c r="AI9" s="20"/>
+      <c r="AJ9" s="21"/>
     </row>
     <row r="10" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="18"/>
       <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="7"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
@@ -1794,22 +1800,22 @@
       <c r="R10" s="7"/>
       <c r="S10" s="7"/>
       <c r="T10" s="7"/>
-      <c r="U10" s="18"/>
-      <c r="V10" s="18"/>
-      <c r="W10" s="18"/>
-      <c r="X10" s="18"/>
-      <c r="Y10" s="18"/>
-      <c r="Z10" s="18"/>
-      <c r="AA10" s="18"/>
-      <c r="AB10" s="18"/>
-      <c r="AC10" s="18"/>
-      <c r="AD10" s="18"/>
-      <c r="AE10" s="18"/>
-      <c r="AF10" s="18"/>
-      <c r="AG10" s="18"/>
-      <c r="AH10" s="18"/>
-      <c r="AI10" s="18"/>
-      <c r="AJ10" s="19"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="20"/>
+      <c r="W10" s="20"/>
+      <c r="X10" s="20"/>
+      <c r="Y10" s="20"/>
+      <c r="Z10" s="20"/>
+      <c r="AA10" s="20"/>
+      <c r="AB10" s="20"/>
+      <c r="AC10" s="20"/>
+      <c r="AD10" s="20"/>
+      <c r="AE10" s="20"/>
+      <c r="AF10" s="20"/>
+      <c r="AG10" s="20"/>
+      <c r="AH10" s="20"/>
+      <c r="AI10" s="20"/>
+      <c r="AJ10" s="21"/>
     </row>
     <row r="11" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
@@ -1818,77 +1824,77 @@
       <c r="C11" s="6"/>
       <c r="D11" s="18"/>
       <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="18"/>
-      <c r="S11" s="7"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
       <c r="T11" s="7"/>
       <c r="U11" s="7"/>
       <c r="V11" s="7"/>
       <c r="W11" s="7"/>
       <c r="X11" s="7"/>
-      <c r="Y11" s="18"/>
-      <c r="Z11" s="18"/>
-      <c r="AA11" s="18"/>
-      <c r="AB11" s="18"/>
-      <c r="AC11" s="18"/>
-      <c r="AD11" s="18"/>
-      <c r="AE11" s="18"/>
-      <c r="AF11" s="18"/>
-      <c r="AG11" s="18"/>
-      <c r="AH11" s="18"/>
-      <c r="AI11" s="18"/>
-      <c r="AJ11" s="19"/>
+      <c r="Y11" s="20"/>
+      <c r="Z11" s="20"/>
+      <c r="AA11" s="20"/>
+      <c r="AB11" s="20"/>
+      <c r="AC11" s="20"/>
+      <c r="AD11" s="20"/>
+      <c r="AE11" s="20"/>
+      <c r="AF11" s="20"/>
+      <c r="AG11" s="20"/>
+      <c r="AH11" s="20"/>
+      <c r="AI11" s="20"/>
+      <c r="AJ11" s="21"/>
     </row>
     <row r="12" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18"/>
-      <c r="S12" s="18"/>
-      <c r="T12" s="18"/>
-      <c r="U12" s="18"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
       <c r="V12" s="6" t="s">
         <v>12</v>
       </c>
       <c r="W12" s="7"/>
       <c r="X12" s="15"/>
       <c r="Y12" s="7"/>
-      <c r="AA12" s="18"/>
-      <c r="AB12" s="18"/>
-      <c r="AC12" s="18"/>
-      <c r="AD12" s="18"/>
-      <c r="AE12" s="18"/>
-      <c r="AF12" s="18"/>
-      <c r="AG12" s="18"/>
-      <c r="AH12" s="18"/>
-      <c r="AI12" s="18"/>
-      <c r="AJ12" s="19"/>
+      <c r="AA12" s="20"/>
+      <c r="AB12" s="20"/>
+      <c r="AC12" s="20"/>
+      <c r="AD12" s="20"/>
+      <c r="AE12" s="20"/>
+      <c r="AF12" s="20"/>
+      <c r="AG12" s="20"/>
+      <c r="AH12" s="20"/>
+      <c r="AI12" s="20"/>
+      <c r="AJ12" s="21"/>
     </row>
     <row r="13" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
@@ -1897,26 +1903,26 @@
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="18"/>
-      <c r="S13" s="18"/>
-      <c r="T13" s="18"/>
-      <c r="U13" s="18"/>
-      <c r="V13" s="18"/>
-      <c r="W13" s="18"/>
-      <c r="X13" s="18"/>
-      <c r="Y13" s="18"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="20"/>
+      <c r="W13" s="20"/>
+      <c r="X13" s="20"/>
+      <c r="Y13" s="20"/>
       <c r="Z13" s="6" t="s">
         <v>12</v>
       </c>
@@ -1924,51 +1930,51 @@
       <c r="AB13" s="7"/>
       <c r="AC13" s="7"/>
       <c r="AD13" s="7"/>
-      <c r="AE13" s="18"/>
-      <c r="AF13" s="18"/>
-      <c r="AG13" s="18"/>
-      <c r="AH13" s="18"/>
-      <c r="AI13" s="18"/>
-      <c r="AJ13" s="19"/>
+      <c r="AE13" s="20"/>
+      <c r="AF13" s="20"/>
+      <c r="AG13" s="20"/>
+      <c r="AH13" s="20"/>
+      <c r="AI13" s="20"/>
+      <c r="AJ13" s="21"/>
     </row>
     <row r="14" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
       <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="18"/>
-      <c r="S14" s="18"/>
-      <c r="T14" s="18"/>
-      <c r="U14" s="18"/>
-      <c r="V14" s="18"/>
-      <c r="W14" s="18"/>
-      <c r="X14" s="18"/>
-      <c r="Y14" s="18"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="20"/>
+      <c r="W14" s="20"/>
+      <c r="X14" s="20"/>
+      <c r="Y14" s="20"/>
       <c r="Z14" s="6"/>
       <c r="AA14" s="7"/>
       <c r="AB14" s="7"/>
       <c r="AC14" s="7"/>
       <c r="AD14" s="7"/>
-      <c r="AE14" s="18"/>
-      <c r="AF14" s="18"/>
-      <c r="AG14" s="18"/>
-      <c r="AH14" s="18"/>
-      <c r="AI14" s="18"/>
-      <c r="AJ14" s="19"/>
+      <c r="AE14" s="20"/>
+      <c r="AF14" s="20"/>
+      <c r="AG14" s="20"/>
+      <c r="AH14" s="20"/>
+      <c r="AI14" s="20"/>
+      <c r="AJ14" s="21"/>
     </row>
     <row r="15" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
@@ -1977,39 +1983,39 @@
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
       <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="18"/>
-      <c r="S15" s="18"/>
-      <c r="T15" s="18"/>
-      <c r="U15" s="18"/>
-      <c r="V15" s="18"/>
-      <c r="W15" s="18"/>
-      <c r="X15" s="18"/>
-      <c r="Y15" s="18"/>
-      <c r="Z15" s="18"/>
-      <c r="AA15" s="18"/>
-      <c r="AB15" s="18"/>
-      <c r="AC15" s="18"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="20"/>
+      <c r="U15" s="20"/>
+      <c r="V15" s="20"/>
+      <c r="W15" s="20"/>
+      <c r="X15" s="20"/>
+      <c r="Y15" s="20"/>
+      <c r="Z15" s="20"/>
+      <c r="AA15" s="20"/>
+      <c r="AB15" s="20"/>
+      <c r="AC15" s="20"/>
       <c r="AD15" s="6" t="s">
         <v>12</v>
       </c>
       <c r="AE15" s="6"/>
-      <c r="AF15" s="18"/>
-      <c r="AG15" s="18"/>
-      <c r="AH15" s="18"/>
-      <c r="AI15" s="18"/>
-      <c r="AJ15" s="19"/>
+      <c r="AF15" s="20"/>
+      <c r="AG15" s="20"/>
+      <c r="AH15" s="20"/>
+      <c r="AI15" s="20"/>
+      <c r="AJ15" s="21"/>
     </row>
     <row r="16" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
@@ -2018,37 +2024,37 @@
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="18"/>
-      <c r="R16" s="18"/>
-      <c r="S16" s="18"/>
-      <c r="T16" s="18"/>
-      <c r="U16" s="18"/>
-      <c r="V16" s="18"/>
-      <c r="W16" s="18"/>
-      <c r="X16" s="18"/>
-      <c r="Y16" s="18"/>
-      <c r="Z16" s="18"/>
-      <c r="AA16" s="18"/>
-      <c r="AB16" s="18"/>
-      <c r="AC16" s="18"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="20"/>
+      <c r="T16" s="20"/>
+      <c r="U16" s="20"/>
+      <c r="V16" s="20"/>
+      <c r="W16" s="20"/>
+      <c r="X16" s="20"/>
+      <c r="Y16" s="20"/>
+      <c r="Z16" s="20"/>
+      <c r="AA16" s="20"/>
+      <c r="AB16" s="20"/>
+      <c r="AC16" s="20"/>
       <c r="AD16" s="6"/>
       <c r="AE16" s="7"/>
       <c r="AF16" s="7"/>
       <c r="AG16" s="7"/>
       <c r="AH16" s="7"/>
       <c r="AI16" s="7"/>
-      <c r="AJ16" s="19"/>
+      <c r="AJ16" s="21"/>
     </row>
     <row r="17" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
@@ -2057,36 +2063,36 @@
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="18"/>
-      <c r="S17" s="18"/>
-      <c r="T17" s="18"/>
-      <c r="U17" s="18"/>
-      <c r="V17" s="18"/>
-      <c r="W17" s="18"/>
-      <c r="X17" s="18"/>
-      <c r="Y17" s="18"/>
-      <c r="Z17" s="18"/>
-      <c r="AA17" s="18"/>
-      <c r="AB17" s="18"/>
-      <c r="AC17" s="18"/>
-      <c r="AD17" s="18"/>
-      <c r="AE17" s="18"/>
-      <c r="AF17" s="18"/>
-      <c r="AG17" s="18"/>
-      <c r="AH17" s="18"/>
-      <c r="AI17" s="18"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
+      <c r="T17" s="20"/>
+      <c r="U17" s="20"/>
+      <c r="V17" s="20"/>
+      <c r="W17" s="20"/>
+      <c r="X17" s="20"/>
+      <c r="Y17" s="20"/>
+      <c r="Z17" s="20"/>
+      <c r="AA17" s="20"/>
+      <c r="AB17" s="20"/>
+      <c r="AC17" s="20"/>
+      <c r="AD17" s="20"/>
+      <c r="AE17" s="20"/>
+      <c r="AF17" s="20"/>
+      <c r="AG17" s="20"/>
+      <c r="AH17" s="20"/>
+      <c r="AI17" s="20"/>
       <c r="AJ17" s="14" t="s">
         <v>12</v>
       </c>

--- a/Timeline.xlsx
+++ b/Timeline.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Feb</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>Implement emotional behaviour system</t>
+  </si>
+  <si>
+    <t>Run Experiment</t>
   </si>
 </sst>
 </file>
@@ -265,7 +268,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -326,6 +329,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -629,7 +635,7 @@
   <dimension ref="B2:AJ17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -641,96 +647,96 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26"/>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="26"/>
-      <c r="AC2" s="26"/>
-      <c r="AD2" s="26"/>
-      <c r="AE2" s="26"/>
-      <c r="AF2" s="26"/>
-      <c r="AG2" s="26"/>
-      <c r="AH2" s="26"/>
-      <c r="AI2" s="26"/>
-      <c r="AJ2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="27"/>
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="27"/>
+      <c r="AD2" s="27"/>
+      <c r="AE2" s="27"/>
+      <c r="AF2" s="27"/>
+      <c r="AG2" s="27"/>
+      <c r="AH2" s="27"/>
+      <c r="AI2" s="27"/>
+      <c r="AJ2" s="28"/>
     </row>
     <row r="3" spans="2:36" x14ac:dyDescent="0.3">
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="22" t="s">
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="22" t="s">
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="22" t="s">
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="R3" s="23"/>
-      <c r="S3" s="23"/>
-      <c r="T3" s="24"/>
-      <c r="U3" s="22" t="s">
+      <c r="R3" s="24"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="V3" s="23"/>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23"/>
-      <c r="Y3" s="24"/>
-      <c r="Z3" s="22" t="s">
+      <c r="V3" s="24"/>
+      <c r="W3" s="24"/>
+      <c r="X3" s="24"/>
+      <c r="Y3" s="25"/>
+      <c r="Z3" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="AA3" s="23"/>
-      <c r="AB3" s="23"/>
-      <c r="AC3" s="24"/>
-      <c r="AD3" s="22" t="s">
+      <c r="AA3" s="24"/>
+      <c r="AB3" s="24"/>
+      <c r="AC3" s="25"/>
+      <c r="AD3" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="AE3" s="23"/>
-      <c r="AF3" s="23"/>
-      <c r="AG3" s="23"/>
-      <c r="AH3" s="24"/>
-      <c r="AI3" s="22" t="s">
+      <c r="AE3" s="24"/>
+      <c r="AF3" s="24"/>
+      <c r="AG3" s="24"/>
+      <c r="AH3" s="25"/>
+      <c r="AI3" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="AJ3" s="24"/>
+      <c r="AJ3" s="25"/>
     </row>
     <row r="4" spans="2:36" x14ac:dyDescent="0.3">
       <c r="C4" s="8">
@@ -963,7 +969,7 @@
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="7"/>
+      <c r="G8" s="22"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
@@ -1374,7 +1380,7 @@
   <dimension ref="B2:AJ17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -1386,96 +1392,96 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26"/>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="26"/>
-      <c r="AC2" s="26"/>
-      <c r="AD2" s="26"/>
-      <c r="AE2" s="26"/>
-      <c r="AF2" s="26"/>
-      <c r="AG2" s="26"/>
-      <c r="AH2" s="26"/>
-      <c r="AI2" s="26"/>
-      <c r="AJ2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="27"/>
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="27"/>
+      <c r="AD2" s="27"/>
+      <c r="AE2" s="27"/>
+      <c r="AF2" s="27"/>
+      <c r="AG2" s="27"/>
+      <c r="AH2" s="27"/>
+      <c r="AI2" s="27"/>
+      <c r="AJ2" s="28"/>
     </row>
     <row r="3" spans="2:36" x14ac:dyDescent="0.3">
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="22" t="s">
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="22" t="s">
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="22" t="s">
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="R3" s="23"/>
-      <c r="S3" s="23"/>
-      <c r="T3" s="24"/>
-      <c r="U3" s="22" t="s">
+      <c r="R3" s="24"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="V3" s="23"/>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23"/>
-      <c r="Y3" s="24"/>
-      <c r="Z3" s="22" t="s">
+      <c r="V3" s="24"/>
+      <c r="W3" s="24"/>
+      <c r="X3" s="24"/>
+      <c r="Y3" s="25"/>
+      <c r="Z3" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="AA3" s="23"/>
-      <c r="AB3" s="23"/>
-      <c r="AC3" s="24"/>
-      <c r="AD3" s="22" t="s">
+      <c r="AA3" s="24"/>
+      <c r="AB3" s="24"/>
+      <c r="AC3" s="25"/>
+      <c r="AD3" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="AE3" s="23"/>
-      <c r="AF3" s="23"/>
-      <c r="AG3" s="23"/>
-      <c r="AH3" s="24"/>
-      <c r="AI3" s="22" t="s">
+      <c r="AE3" s="24"/>
+      <c r="AF3" s="24"/>
+      <c r="AG3" s="24"/>
+      <c r="AH3" s="25"/>
+      <c r="AI3" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="AJ3" s="24"/>
+      <c r="AJ3" s="25"/>
     </row>
     <row r="4" spans="2:36" x14ac:dyDescent="0.3">
       <c r="C4" s="8">
@@ -1629,7 +1635,7 @@
       <c r="C6" s="6"/>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
-      <c r="F6" s="7"/>
+      <c r="F6" s="16"/>
       <c r="G6" s="20"/>
       <c r="H6" s="20"/>
       <c r="I6" s="20"/>
@@ -1668,8 +1674,8 @@
       <c r="C7" s="6"/>
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="20"/>
@@ -1708,7 +1714,7 @@
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
       <c r="F8" s="20"/>
-      <c r="G8" s="7"/>
+      <c r="G8" s="22"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
@@ -1978,7 +1984,7 @@
     </row>
     <row r="15" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>

--- a/Timeline.xlsx
+++ b/Timeline.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Katie\Documents\GitHub\RRP-ProjectProposal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k-winkle\Documents\GitHub\RRP-ProjectProposal\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20035" windowHeight="7839" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20040" windowHeight="7845" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
@@ -135,7 +135,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -151,6 +151,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -268,7 +274,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -332,6 +338,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -638,107 +647,107 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="33.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="11" width="3" style="1" customWidth="1"/>
     <col min="12" max="36" width="3" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="C2" s="26" t="s">
+    <row r="2" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="C2" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="27"/>
-      <c r="X2" s="27"/>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="27"/>
-      <c r="AA2" s="27"/>
-      <c r="AB2" s="27"/>
-      <c r="AC2" s="27"/>
-      <c r="AD2" s="27"/>
-      <c r="AE2" s="27"/>
-      <c r="AF2" s="27"/>
-      <c r="AG2" s="27"/>
-      <c r="AH2" s="27"/>
-      <c r="AI2" s="27"/>
-      <c r="AJ2" s="28"/>
-    </row>
-    <row r="3" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="28"/>
+      <c r="X2" s="28"/>
+      <c r="Y2" s="28"/>
+      <c r="Z2" s="28"/>
+      <c r="AA2" s="28"/>
+      <c r="AB2" s="28"/>
+      <c r="AC2" s="28"/>
+      <c r="AD2" s="28"/>
+      <c r="AE2" s="28"/>
+      <c r="AF2" s="28"/>
+      <c r="AG2" s="28"/>
+      <c r="AH2" s="28"/>
+      <c r="AI2" s="28"/>
+      <c r="AJ2" s="29"/>
+    </row>
+    <row r="3" spans="2:36" x14ac:dyDescent="0.25">
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="23" t="s">
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="23" t="s">
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="23" t="s">
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="R3" s="24"/>
-      <c r="S3" s="24"/>
-      <c r="T3" s="25"/>
-      <c r="U3" s="23" t="s">
+      <c r="R3" s="25"/>
+      <c r="S3" s="25"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="V3" s="24"/>
-      <c r="W3" s="24"/>
-      <c r="X3" s="24"/>
-      <c r="Y3" s="25"/>
-      <c r="Z3" s="23" t="s">
+      <c r="V3" s="25"/>
+      <c r="W3" s="25"/>
+      <c r="X3" s="25"/>
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="AA3" s="24"/>
-      <c r="AB3" s="24"/>
-      <c r="AC3" s="25"/>
-      <c r="AD3" s="23" t="s">
+      <c r="AA3" s="25"/>
+      <c r="AB3" s="25"/>
+      <c r="AC3" s="26"/>
+      <c r="AD3" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="AE3" s="24"/>
-      <c r="AF3" s="24"/>
-      <c r="AG3" s="24"/>
-      <c r="AH3" s="25"/>
-      <c r="AI3" s="23" t="s">
+      <c r="AE3" s="25"/>
+      <c r="AF3" s="25"/>
+      <c r="AG3" s="25"/>
+      <c r="AH3" s="26"/>
+      <c r="AI3" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="AJ3" s="25"/>
-    </row>
-    <row r="4" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="AJ3" s="26"/>
+    </row>
+    <row r="4" spans="2:36" x14ac:dyDescent="0.25">
       <c r="C4" s="8">
         <v>1</v>
       </c>
@@ -842,7 +851,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
@@ -883,7 +892,7 @@
       <c r="AI5" s="4"/>
       <c r="AJ5" s="5"/>
     </row>
-    <row r="6" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
@@ -922,7 +931,7 @@
       <c r="AI6" s="4"/>
       <c r="AJ6" s="5"/>
     </row>
-    <row r="7" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>20</v>
       </c>
@@ -961,7 +970,7 @@
       <c r="AI7" s="4"/>
       <c r="AJ7" s="5"/>
     </row>
-    <row r="8" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
@@ -1000,7 +1009,7 @@
       <c r="AI8" s="4"/>
       <c r="AJ8" s="5"/>
     </row>
-    <row r="9" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
@@ -1039,7 +1048,7 @@
       <c r="AI9" s="4"/>
       <c r="AJ9" s="5"/>
     </row>
-    <row r="10" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>23</v>
       </c>
@@ -1078,7 +1087,7 @@
       <c r="AI10" s="4"/>
       <c r="AJ10" s="5"/>
     </row>
-    <row r="11" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>16</v>
       </c>
@@ -1117,7 +1126,7 @@
       <c r="AI11" s="4"/>
       <c r="AJ11" s="5"/>
     </row>
-    <row r="12" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>19</v>
       </c>
@@ -1157,7 +1166,7 @@
       <c r="AI12" s="4"/>
       <c r="AJ12" s="5"/>
     </row>
-    <row r="13" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -1198,7 +1207,7 @@
       <c r="AI13" s="4"/>
       <c r="AJ13" s="5"/>
     </row>
-    <row r="14" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>21</v>
       </c>
@@ -1237,7 +1246,7 @@
       <c r="AI14" s="18"/>
       <c r="AJ14" s="19"/>
     </row>
-    <row r="15" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>11</v>
       </c>
@@ -1278,7 +1287,7 @@
       <c r="AI15" s="4"/>
       <c r="AJ15" s="5"/>
     </row>
-    <row r="16" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>15</v>
       </c>
@@ -1317,7 +1326,7 @@
       <c r="AI16" s="7"/>
       <c r="AJ16" s="5"/>
     </row>
-    <row r="17" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>13</v>
       </c>
@@ -1380,110 +1389,110 @@
   <dimension ref="B2:AJ17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="33.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="11" width="3" style="1" customWidth="1"/>
     <col min="12" max="36" width="3" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="C2" s="26" t="s">
+    <row r="2" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="C2" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="27"/>
-      <c r="X2" s="27"/>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="27"/>
-      <c r="AA2" s="27"/>
-      <c r="AB2" s="27"/>
-      <c r="AC2" s="27"/>
-      <c r="AD2" s="27"/>
-      <c r="AE2" s="27"/>
-      <c r="AF2" s="27"/>
-      <c r="AG2" s="27"/>
-      <c r="AH2" s="27"/>
-      <c r="AI2" s="27"/>
-      <c r="AJ2" s="28"/>
-    </row>
-    <row r="3" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="28"/>
+      <c r="X2" s="28"/>
+      <c r="Y2" s="28"/>
+      <c r="Z2" s="28"/>
+      <c r="AA2" s="28"/>
+      <c r="AB2" s="28"/>
+      <c r="AC2" s="28"/>
+      <c r="AD2" s="28"/>
+      <c r="AE2" s="28"/>
+      <c r="AF2" s="28"/>
+      <c r="AG2" s="28"/>
+      <c r="AH2" s="28"/>
+      <c r="AI2" s="28"/>
+      <c r="AJ2" s="29"/>
+    </row>
+    <row r="3" spans="2:36" x14ac:dyDescent="0.25">
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="23" t="s">
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="23" t="s">
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="23" t="s">
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="R3" s="24"/>
-      <c r="S3" s="24"/>
-      <c r="T3" s="25"/>
-      <c r="U3" s="23" t="s">
+      <c r="R3" s="25"/>
+      <c r="S3" s="25"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="V3" s="24"/>
-      <c r="W3" s="24"/>
-      <c r="X3" s="24"/>
-      <c r="Y3" s="25"/>
-      <c r="Z3" s="23" t="s">
+      <c r="V3" s="25"/>
+      <c r="W3" s="25"/>
+      <c r="X3" s="25"/>
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="AA3" s="24"/>
-      <c r="AB3" s="24"/>
-      <c r="AC3" s="25"/>
-      <c r="AD3" s="23" t="s">
+      <c r="AA3" s="25"/>
+      <c r="AB3" s="25"/>
+      <c r="AC3" s="26"/>
+      <c r="AD3" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="AE3" s="24"/>
-      <c r="AF3" s="24"/>
-      <c r="AG3" s="24"/>
-      <c r="AH3" s="25"/>
-      <c r="AI3" s="23" t="s">
+      <c r="AE3" s="25"/>
+      <c r="AF3" s="25"/>
+      <c r="AG3" s="25"/>
+      <c r="AH3" s="26"/>
+      <c r="AI3" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="AJ3" s="25"/>
-    </row>
-    <row r="4" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="AJ3" s="26"/>
+    </row>
+    <row r="4" spans="2:36" x14ac:dyDescent="0.25">
       <c r="C4" s="8">
         <v>1</v>
       </c>
@@ -1587,7 +1596,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
@@ -1628,7 +1637,7 @@
       <c r="AI5" s="20"/>
       <c r="AJ5" s="21"/>
     </row>
-    <row r="6" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
@@ -1667,7 +1676,7 @@
       <c r="AI6" s="20"/>
       <c r="AJ6" s="21"/>
     </row>
-    <row r="7" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>20</v>
       </c>
@@ -1676,7 +1685,7 @@
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
-      <c r="H7" s="7"/>
+      <c r="H7" s="16"/>
       <c r="I7" s="7"/>
       <c r="J7" s="20"/>
       <c r="K7" s="20"/>
@@ -1706,7 +1715,7 @@
       <c r="AI7" s="20"/>
       <c r="AJ7" s="21"/>
     </row>
-    <row r="8" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
@@ -1715,7 +1724,7 @@
       <c r="E8" s="18"/>
       <c r="F8" s="20"/>
       <c r="G8" s="22"/>
-      <c r="H8" s="7"/>
+      <c r="H8" s="23"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="20"/>
@@ -1745,7 +1754,7 @@
       <c r="AI8" s="20"/>
       <c r="AJ8" s="21"/>
     </row>
-    <row r="9" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
@@ -1784,7 +1793,7 @@
       <c r="AI9" s="20"/>
       <c r="AJ9" s="21"/>
     </row>
-    <row r="10" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>23</v>
       </c>
@@ -1823,7 +1832,7 @@
       <c r="AI10" s="20"/>
       <c r="AJ10" s="21"/>
     </row>
-    <row r="11" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>16</v>
       </c>
@@ -1862,7 +1871,7 @@
       <c r="AI11" s="20"/>
       <c r="AJ11" s="21"/>
     </row>
-    <row r="12" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>19</v>
       </c>
@@ -1902,7 +1911,7 @@
       <c r="AI12" s="20"/>
       <c r="AJ12" s="21"/>
     </row>
-    <row r="13" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -1943,7 +1952,7 @@
       <c r="AI13" s="20"/>
       <c r="AJ13" s="21"/>
     </row>
-    <row r="14" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>21</v>
       </c>
@@ -1982,7 +1991,7 @@
       <c r="AI14" s="20"/>
       <c r="AJ14" s="21"/>
     </row>
-    <row r="15" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>24</v>
       </c>
@@ -2023,7 +2032,7 @@
       <c r="AI15" s="20"/>
       <c r="AJ15" s="21"/>
     </row>
-    <row r="16" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>15</v>
       </c>
@@ -2062,7 +2071,7 @@
       <c r="AI16" s="7"/>
       <c r="AJ16" s="21"/>
     </row>
-    <row r="17" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>13</v>
       </c>

--- a/Timeline.xlsx
+++ b/Timeline.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20040" windowHeight="7845" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20040" windowHeight="7845"/>
   </bookViews>
   <sheets>
-    <sheet name="Original" sheetId="1" r:id="rId1"/>
-    <sheet name="Live" sheetId="2" r:id="rId2"/>
+    <sheet name="Feedback" sheetId="3" r:id="rId1"/>
+    <sheet name="Original" sheetId="1" r:id="rId2"/>
+    <sheet name="Live" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="27">
   <si>
     <t>Feb</t>
   </si>
@@ -100,6 +101,12 @@
   </si>
   <si>
     <t>Run Experiment</t>
+  </si>
+  <si>
+    <t>Identify emotional behaviour parameters</t>
+  </si>
+  <si>
+    <t>Experiment Design (&amp; Ethics Approval)</t>
   </si>
 </sst>
 </file>
@@ -274,7 +281,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -341,6 +348,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -641,6 +654,699 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:AJ16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S18" sqref="S18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" customWidth="1"/>
+    <col min="2" max="2" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="3" style="1" customWidth="1"/>
+    <col min="12" max="36" width="3" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="C2" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30"/>
+      <c r="X2" s="30"/>
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="30"/>
+      <c r="AA2" s="30"/>
+      <c r="AB2" s="30"/>
+      <c r="AC2" s="30"/>
+      <c r="AD2" s="30"/>
+      <c r="AE2" s="30"/>
+      <c r="AF2" s="30"/>
+      <c r="AG2" s="30"/>
+      <c r="AH2" s="30"/>
+      <c r="AI2" s="30"/>
+      <c r="AJ2" s="31"/>
+    </row>
+    <row r="3" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="C3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="28"/>
+      <c r="U3" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="V3" s="27"/>
+      <c r="W3" s="27"/>
+      <c r="X3" s="27"/>
+      <c r="Y3" s="28"/>
+      <c r="Z3" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA3" s="27"/>
+      <c r="AB3" s="27"/>
+      <c r="AC3" s="28"/>
+      <c r="AD3" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE3" s="27"/>
+      <c r="AF3" s="27"/>
+      <c r="AG3" s="27"/>
+      <c r="AH3" s="28"/>
+      <c r="AI3" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ3" s="28"/>
+    </row>
+    <row r="4" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="C4" s="8">
+        <v>1</v>
+      </c>
+      <c r="D4" s="9">
+        <v>2</v>
+      </c>
+      <c r="E4" s="10">
+        <v>3</v>
+      </c>
+      <c r="F4" s="10">
+        <v>4</v>
+      </c>
+      <c r="G4" s="11">
+        <v>5</v>
+      </c>
+      <c r="H4" s="8">
+        <v>6</v>
+      </c>
+      <c r="I4" s="12">
+        <v>7</v>
+      </c>
+      <c r="J4" s="12">
+        <v>8</v>
+      </c>
+      <c r="K4" s="12">
+        <v>9</v>
+      </c>
+      <c r="L4" s="13">
+        <v>10</v>
+      </c>
+      <c r="M4" s="8">
+        <v>11</v>
+      </c>
+      <c r="N4" s="12">
+        <v>12</v>
+      </c>
+      <c r="O4" s="12">
+        <v>13</v>
+      </c>
+      <c r="P4" s="13">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>15</v>
+      </c>
+      <c r="R4" s="12">
+        <v>16</v>
+      </c>
+      <c r="S4" s="12">
+        <v>17</v>
+      </c>
+      <c r="T4" s="13">
+        <v>18</v>
+      </c>
+      <c r="U4" s="8">
+        <v>19</v>
+      </c>
+      <c r="V4" s="12">
+        <v>20</v>
+      </c>
+      <c r="W4" s="12">
+        <v>21</v>
+      </c>
+      <c r="X4" s="12">
+        <v>22</v>
+      </c>
+      <c r="Y4" s="13">
+        <v>23</v>
+      </c>
+      <c r="Z4" s="8">
+        <v>24</v>
+      </c>
+      <c r="AA4" s="12">
+        <v>25</v>
+      </c>
+      <c r="AB4" s="12">
+        <v>26</v>
+      </c>
+      <c r="AC4" s="13">
+        <v>27</v>
+      </c>
+      <c r="AD4" s="8">
+        <v>28</v>
+      </c>
+      <c r="AE4" s="12">
+        <v>29</v>
+      </c>
+      <c r="AF4" s="12">
+        <v>30</v>
+      </c>
+      <c r="AG4" s="12">
+        <v>31</v>
+      </c>
+      <c r="AH4" s="13">
+        <v>32</v>
+      </c>
+      <c r="AI4" s="8">
+        <v>33</v>
+      </c>
+      <c r="AJ4" s="13">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="24"/>
+      <c r="V5" s="24"/>
+      <c r="W5" s="24"/>
+      <c r="X5" s="24"/>
+      <c r="Y5" s="24"/>
+      <c r="Z5" s="24"/>
+      <c r="AA5" s="24"/>
+      <c r="AB5" s="24"/>
+      <c r="AC5" s="24"/>
+      <c r="AD5" s="24"/>
+      <c r="AE5" s="24"/>
+      <c r="AF5" s="24"/>
+      <c r="AG5" s="24"/>
+      <c r="AH5" s="24"/>
+      <c r="AI5" s="24"/>
+      <c r="AJ5" s="25"/>
+    </row>
+    <row r="6" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="24"/>
+      <c r="U6" s="24"/>
+      <c r="V6" s="24"/>
+      <c r="W6" s="24"/>
+      <c r="X6" s="24"/>
+      <c r="Y6" s="24"/>
+      <c r="Z6" s="24"/>
+      <c r="AA6" s="24"/>
+      <c r="AB6" s="24"/>
+      <c r="AC6" s="24"/>
+      <c r="AD6" s="24"/>
+      <c r="AE6" s="24"/>
+      <c r="AF6" s="24"/>
+      <c r="AG6" s="24"/>
+      <c r="AH6" s="24"/>
+      <c r="AI6" s="24"/>
+      <c r="AJ6" s="25"/>
+    </row>
+    <row r="7" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="24"/>
+      <c r="T7" s="24"/>
+      <c r="U7" s="24"/>
+      <c r="V7" s="24"/>
+      <c r="W7" s="24"/>
+      <c r="X7" s="24"/>
+      <c r="Y7" s="24"/>
+      <c r="Z7" s="24"/>
+      <c r="AA7" s="24"/>
+      <c r="AB7" s="24"/>
+      <c r="AC7" s="24"/>
+      <c r="AD7" s="24"/>
+      <c r="AE7" s="24"/>
+      <c r="AF7" s="24"/>
+      <c r="AG7" s="24"/>
+      <c r="AH7" s="24"/>
+      <c r="AI7" s="24"/>
+      <c r="AJ7" s="25"/>
+    </row>
+    <row r="8" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="24"/>
+      <c r="U8" s="24"/>
+      <c r="V8" s="24"/>
+      <c r="W8" s="24"/>
+      <c r="X8" s="24"/>
+      <c r="Y8" s="24"/>
+      <c r="Z8" s="24"/>
+      <c r="AA8" s="24"/>
+      <c r="AB8" s="24"/>
+      <c r="AC8" s="24"/>
+      <c r="AD8" s="24"/>
+      <c r="AE8" s="24"/>
+      <c r="AF8" s="24"/>
+      <c r="AG8" s="24"/>
+      <c r="AH8" s="24"/>
+      <c r="AI8" s="24"/>
+      <c r="AJ8" s="25"/>
+    </row>
+    <row r="9" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="24"/>
+      <c r="T9" s="24"/>
+      <c r="U9" s="24"/>
+      <c r="V9" s="24"/>
+      <c r="W9" s="24"/>
+      <c r="X9" s="24"/>
+      <c r="Y9" s="24"/>
+      <c r="Z9" s="24"/>
+      <c r="AA9" s="24"/>
+      <c r="AB9" s="24"/>
+      <c r="AC9" s="24"/>
+      <c r="AD9" s="24"/>
+      <c r="AE9" s="24"/>
+      <c r="AF9" s="24"/>
+      <c r="AG9" s="24"/>
+      <c r="AH9" s="24"/>
+      <c r="AI9" s="24"/>
+      <c r="AJ9" s="25"/>
+    </row>
+    <row r="10" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="24"/>
+      <c r="AA10" s="24"/>
+      <c r="AB10" s="24"/>
+      <c r="AC10" s="24"/>
+      <c r="AD10" s="24"/>
+      <c r="AE10" s="24"/>
+      <c r="AF10" s="24"/>
+      <c r="AG10" s="24"/>
+      <c r="AH10" s="24"/>
+      <c r="AI10" s="24"/>
+      <c r="AJ10" s="25"/>
+    </row>
+    <row r="11" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="Y11" s="24"/>
+      <c r="Z11" s="24"/>
+      <c r="AA11" s="24"/>
+      <c r="AB11" s="24"/>
+      <c r="AC11" s="24"/>
+      <c r="AD11" s="24"/>
+      <c r="AE11" s="24"/>
+      <c r="AF11" s="24"/>
+      <c r="AG11" s="24"/>
+      <c r="AH11" s="24"/>
+      <c r="AI11" s="24"/>
+      <c r="AJ11" s="25"/>
+    </row>
+    <row r="12" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="24"/>
+      <c r="T12" s="24"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+      <c r="AE12" s="24"/>
+      <c r="AF12" s="24"/>
+      <c r="AG12" s="24"/>
+      <c r="AH12" s="24"/>
+      <c r="AI12" s="24"/>
+      <c r="AJ12" s="25"/>
+    </row>
+    <row r="13" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="24"/>
+      <c r="T13" s="24"/>
+      <c r="U13" s="24"/>
+      <c r="Z13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA13" s="7"/>
+      <c r="AB13" s="15"/>
+      <c r="AC13" s="7"/>
+      <c r="AD13" s="7"/>
+      <c r="AE13" s="24"/>
+      <c r="AF13" s="24"/>
+      <c r="AG13" s="24"/>
+      <c r="AH13" s="24"/>
+      <c r="AI13" s="24"/>
+      <c r="AJ13" s="25"/>
+    </row>
+    <row r="14" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="24"/>
+      <c r="T14" s="24"/>
+      <c r="U14" s="24"/>
+      <c r="V14" s="24"/>
+      <c r="W14" s="24"/>
+      <c r="X14" s="24"/>
+      <c r="Y14" s="24"/>
+      <c r="Z14" s="24"/>
+      <c r="AA14" s="24"/>
+      <c r="AB14" s="24"/>
+      <c r="AC14" s="24"/>
+      <c r="AD14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE14" s="6"/>
+      <c r="AF14" s="24"/>
+      <c r="AG14" s="24"/>
+      <c r="AH14" s="24"/>
+      <c r="AI14" s="24"/>
+      <c r="AJ14" s="25"/>
+    </row>
+    <row r="15" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="24"/>
+      <c r="T15" s="24"/>
+      <c r="U15" s="24"/>
+      <c r="V15" s="24"/>
+      <c r="W15" s="24"/>
+      <c r="X15" s="24"/>
+      <c r="Y15" s="24"/>
+      <c r="Z15" s="24"/>
+      <c r="AA15" s="24"/>
+      <c r="AB15" s="24"/>
+      <c r="AC15" s="24"/>
+      <c r="AD15" s="6"/>
+      <c r="AE15" s="7"/>
+      <c r="AF15" s="7"/>
+      <c r="AG15" s="7"/>
+      <c r="AH15" s="7"/>
+      <c r="AI15" s="7"/>
+      <c r="AJ15" s="25"/>
+    </row>
+    <row r="16" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="24"/>
+      <c r="S16" s="24"/>
+      <c r="T16" s="24"/>
+      <c r="U16" s="24"/>
+      <c r="V16" s="24"/>
+      <c r="W16" s="24"/>
+      <c r="X16" s="24"/>
+      <c r="Y16" s="24"/>
+      <c r="Z16" s="24"/>
+      <c r="AA16" s="24"/>
+      <c r="AB16" s="24"/>
+      <c r="AC16" s="24"/>
+      <c r="AD16" s="24"/>
+      <c r="AE16" s="24"/>
+      <c r="AF16" s="24"/>
+      <c r="AG16" s="24"/>
+      <c r="AH16" s="24"/>
+      <c r="AI16" s="24"/>
+      <c r="AJ16" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C2:AJ2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="Z3:AC3"/>
+    <mergeCell ref="AD3:AH3"/>
+    <mergeCell ref="AI3:AJ3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AJ17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -656,96 +1362,96 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="28"/>
-      <c r="U2" s="28"/>
-      <c r="V2" s="28"/>
-      <c r="W2" s="28"/>
-      <c r="X2" s="28"/>
-      <c r="Y2" s="28"/>
-      <c r="Z2" s="28"/>
-      <c r="AA2" s="28"/>
-      <c r="AB2" s="28"/>
-      <c r="AC2" s="28"/>
-      <c r="AD2" s="28"/>
-      <c r="AE2" s="28"/>
-      <c r="AF2" s="28"/>
-      <c r="AG2" s="28"/>
-      <c r="AH2" s="28"/>
-      <c r="AI2" s="28"/>
-      <c r="AJ2" s="29"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30"/>
+      <c r="X2" s="30"/>
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="30"/>
+      <c r="AA2" s="30"/>
+      <c r="AB2" s="30"/>
+      <c r="AC2" s="30"/>
+      <c r="AD2" s="30"/>
+      <c r="AE2" s="30"/>
+      <c r="AF2" s="30"/>
+      <c r="AG2" s="30"/>
+      <c r="AH2" s="30"/>
+      <c r="AI2" s="30"/>
+      <c r="AJ2" s="31"/>
     </row>
     <row r="3" spans="2:36" x14ac:dyDescent="0.25">
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="24" t="s">
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="24" t="s">
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="24" t="s">
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="R3" s="25"/>
-      <c r="S3" s="25"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="24" t="s">
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="28"/>
+      <c r="U3" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="V3" s="25"/>
-      <c r="W3" s="25"/>
-      <c r="X3" s="25"/>
-      <c r="Y3" s="26"/>
-      <c r="Z3" s="24" t="s">
+      <c r="V3" s="27"/>
+      <c r="W3" s="27"/>
+      <c r="X3" s="27"/>
+      <c r="Y3" s="28"/>
+      <c r="Z3" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="AA3" s="25"/>
-      <c r="AB3" s="25"/>
-      <c r="AC3" s="26"/>
-      <c r="AD3" s="24" t="s">
+      <c r="AA3" s="27"/>
+      <c r="AB3" s="27"/>
+      <c r="AC3" s="28"/>
+      <c r="AD3" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="AE3" s="25"/>
-      <c r="AF3" s="25"/>
-      <c r="AG3" s="25"/>
-      <c r="AH3" s="26"/>
-      <c r="AI3" s="24" t="s">
+      <c r="AE3" s="27"/>
+      <c r="AF3" s="27"/>
+      <c r="AG3" s="27"/>
+      <c r="AH3" s="28"/>
+      <c r="AI3" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="AJ3" s="26"/>
+      <c r="AJ3" s="28"/>
     </row>
     <row r="4" spans="2:36" x14ac:dyDescent="0.25">
       <c r="C4" s="8">
@@ -1384,11 +2090,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AJ17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
@@ -1401,96 +2107,96 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="28"/>
-      <c r="U2" s="28"/>
-      <c r="V2" s="28"/>
-      <c r="W2" s="28"/>
-      <c r="X2" s="28"/>
-      <c r="Y2" s="28"/>
-      <c r="Z2" s="28"/>
-      <c r="AA2" s="28"/>
-      <c r="AB2" s="28"/>
-      <c r="AC2" s="28"/>
-      <c r="AD2" s="28"/>
-      <c r="AE2" s="28"/>
-      <c r="AF2" s="28"/>
-      <c r="AG2" s="28"/>
-      <c r="AH2" s="28"/>
-      <c r="AI2" s="28"/>
-      <c r="AJ2" s="29"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30"/>
+      <c r="X2" s="30"/>
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="30"/>
+      <c r="AA2" s="30"/>
+      <c r="AB2" s="30"/>
+      <c r="AC2" s="30"/>
+      <c r="AD2" s="30"/>
+      <c r="AE2" s="30"/>
+      <c r="AF2" s="30"/>
+      <c r="AG2" s="30"/>
+      <c r="AH2" s="30"/>
+      <c r="AI2" s="30"/>
+      <c r="AJ2" s="31"/>
     </row>
     <row r="3" spans="2:36" x14ac:dyDescent="0.25">
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="24" t="s">
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="24" t="s">
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="24" t="s">
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="R3" s="25"/>
-      <c r="S3" s="25"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="24" t="s">
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="28"/>
+      <c r="U3" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="V3" s="25"/>
-      <c r="W3" s="25"/>
-      <c r="X3" s="25"/>
-      <c r="Y3" s="26"/>
-      <c r="Z3" s="24" t="s">
+      <c r="V3" s="27"/>
+      <c r="W3" s="27"/>
+      <c r="X3" s="27"/>
+      <c r="Y3" s="28"/>
+      <c r="Z3" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="AA3" s="25"/>
-      <c r="AB3" s="25"/>
-      <c r="AC3" s="26"/>
-      <c r="AD3" s="24" t="s">
+      <c r="AA3" s="27"/>
+      <c r="AB3" s="27"/>
+      <c r="AC3" s="28"/>
+      <c r="AD3" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="AE3" s="25"/>
-      <c r="AF3" s="25"/>
-      <c r="AG3" s="25"/>
-      <c r="AH3" s="26"/>
-      <c r="AI3" s="24" t="s">
+      <c r="AE3" s="27"/>
+      <c r="AF3" s="27"/>
+      <c r="AG3" s="27"/>
+      <c r="AH3" s="28"/>
+      <c r="AI3" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="AJ3" s="26"/>
+      <c r="AJ3" s="28"/>
     </row>
     <row r="4" spans="2:36" x14ac:dyDescent="0.25">
       <c r="C4" s="8">

--- a/Timeline.xlsx
+++ b/Timeline.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k-winkle\Documents\GitHub\RRP-ProjectProposal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Katie\Documents\GitHub\RRP-ProjectProposal\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20040" windowHeight="7845"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20035" windowHeight="7851"/>
   </bookViews>
   <sheets>
     <sheet name="Feedback" sheetId="3" r:id="rId1"/>
@@ -113,7 +113,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,6 +140,13 @@
       <color theme="0" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -281,7 +288,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -356,6 +363,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -365,15 +381,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -657,110 +665,110 @@
   <dimension ref="B2:AJ16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+      <selection activeCell="B2" sqref="B2:AJ16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="11" width="3" style="1" customWidth="1"/>
     <col min="12" max="36" width="3" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="C2" s="29" t="s">
+    <row r="2" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="C2" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="30"/>
-      <c r="V2" s="30"/>
-      <c r="W2" s="30"/>
-      <c r="X2" s="30"/>
-      <c r="Y2" s="30"/>
-      <c r="Z2" s="30"/>
-      <c r="AA2" s="30"/>
-      <c r="AB2" s="30"/>
-      <c r="AC2" s="30"/>
-      <c r="AD2" s="30"/>
-      <c r="AE2" s="30"/>
-      <c r="AF2" s="30"/>
-      <c r="AG2" s="30"/>
-      <c r="AH2" s="30"/>
-      <c r="AI2" s="30"/>
-      <c r="AJ2" s="31"/>
-    </row>
-    <row r="3" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="27"/>
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="27"/>
+      <c r="AD2" s="27"/>
+      <c r="AE2" s="27"/>
+      <c r="AF2" s="27"/>
+      <c r="AG2" s="27"/>
+      <c r="AH2" s="27"/>
+      <c r="AI2" s="27"/>
+      <c r="AJ2" s="28"/>
+    </row>
+    <row r="3" spans="2:36" x14ac:dyDescent="0.3">
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="26" t="s">
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="26" t="s">
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="26" t="s">
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="R3" s="27"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="28"/>
-      <c r="U3" s="26" t="s">
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="V3" s="27"/>
-      <c r="W3" s="27"/>
-      <c r="X3" s="27"/>
-      <c r="Y3" s="28"/>
-      <c r="Z3" s="26" t="s">
+      <c r="V3" s="30"/>
+      <c r="W3" s="30"/>
+      <c r="X3" s="30"/>
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="AA3" s="27"/>
-      <c r="AB3" s="27"/>
-      <c r="AC3" s="28"/>
-      <c r="AD3" s="26" t="s">
+      <c r="AA3" s="30"/>
+      <c r="AB3" s="30"/>
+      <c r="AC3" s="31"/>
+      <c r="AD3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="AE3" s="27"/>
-      <c r="AF3" s="27"/>
-      <c r="AG3" s="27"/>
-      <c r="AH3" s="28"/>
-      <c r="AI3" s="26" t="s">
+      <c r="AE3" s="30"/>
+      <c r="AF3" s="30"/>
+      <c r="AG3" s="30"/>
+      <c r="AH3" s="31"/>
+      <c r="AI3" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="AJ3" s="28"/>
-    </row>
-    <row r="4" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AJ3" s="31"/>
+    </row>
+    <row r="4" spans="2:36" x14ac:dyDescent="0.3">
       <c r="C4" s="8">
         <v>1</v>
       </c>
@@ -864,8 +872,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
+    <row r="5" spans="2:36" ht="18.2" x14ac:dyDescent="0.35">
+      <c r="B5" s="32" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -905,8 +913,8 @@
       <c r="AI5" s="24"/>
       <c r="AJ5" s="25"/>
     </row>
-    <row r="6" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
+    <row r="6" spans="2:36" ht="18.2" x14ac:dyDescent="0.35">
+      <c r="B6" s="32" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="6"/>
@@ -944,8 +952,8 @@
       <c r="AI6" s="24"/>
       <c r="AJ6" s="25"/>
     </row>
-    <row r="7" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
+    <row r="7" spans="2:36" ht="18.2" x14ac:dyDescent="0.35">
+      <c r="B7" s="32" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="6"/>
@@ -983,8 +991,8 @@
       <c r="AI7" s="24"/>
       <c r="AJ7" s="25"/>
     </row>
-    <row r="8" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
+    <row r="8" spans="2:36" ht="18.2" x14ac:dyDescent="0.35">
+      <c r="B8" s="32" t="s">
         <v>25</v>
       </c>
       <c r="C8" s="6"/>
@@ -1022,8 +1030,8 @@
       <c r="AI8" s="24"/>
       <c r="AJ8" s="25"/>
     </row>
-    <row r="9" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
+    <row r="9" spans="2:36" ht="18.2" x14ac:dyDescent="0.35">
+      <c r="B9" s="32" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="6"/>
@@ -1061,8 +1069,8 @@
       <c r="AI9" s="24"/>
       <c r="AJ9" s="25"/>
     </row>
-    <row r="10" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
+    <row r="10" spans="2:36" ht="18.2" x14ac:dyDescent="0.35">
+      <c r="B10" s="32" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="6"/>
@@ -1100,8 +1108,8 @@
       <c r="AI10" s="24"/>
       <c r="AJ10" s="25"/>
     </row>
-    <row r="11" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
+    <row r="11" spans="2:36" ht="18.2" x14ac:dyDescent="0.35">
+      <c r="B11" s="32" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="6"/>
@@ -1135,8 +1143,8 @@
       <c r="AI11" s="24"/>
       <c r="AJ11" s="25"/>
     </row>
-    <row r="12" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
+    <row r="12" spans="2:36" ht="18.2" x14ac:dyDescent="0.35">
+      <c r="B12" s="32" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="24"/>
@@ -1170,8 +1178,8 @@
       <c r="AI12" s="24"/>
       <c r="AJ12" s="25"/>
     </row>
-    <row r="13" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
+    <row r="13" spans="2:36" ht="18.2" x14ac:dyDescent="0.35">
+      <c r="B13" s="32" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="6"/>
@@ -1207,8 +1215,8 @@
       <c r="AI13" s="24"/>
       <c r="AJ13" s="25"/>
     </row>
-    <row r="14" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
+    <row r="14" spans="2:36" ht="18.2" x14ac:dyDescent="0.35">
+      <c r="B14" s="32" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="24"/>
@@ -1248,8 +1256,8 @@
       <c r="AI14" s="24"/>
       <c r="AJ14" s="25"/>
     </row>
-    <row r="15" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
+    <row r="15" spans="2:36" ht="18.2" x14ac:dyDescent="0.35">
+      <c r="B15" s="32" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="24"/>
@@ -1287,8 +1295,8 @@
       <c r="AI15" s="7"/>
       <c r="AJ15" s="25"/>
     </row>
-    <row r="16" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
+    <row r="16" spans="2:36" ht="18.2" x14ac:dyDescent="0.35">
+      <c r="B16" s="32" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="24"/>
@@ -1341,7 +1349,7 @@
     <mergeCell ref="AI3:AJ3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1353,107 +1361,107 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="11" width="3" style="1" customWidth="1"/>
     <col min="12" max="36" width="3" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="C2" s="29" t="s">
+    <row r="2" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="C2" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="30"/>
-      <c r="V2" s="30"/>
-      <c r="W2" s="30"/>
-      <c r="X2" s="30"/>
-      <c r="Y2" s="30"/>
-      <c r="Z2" s="30"/>
-      <c r="AA2" s="30"/>
-      <c r="AB2" s="30"/>
-      <c r="AC2" s="30"/>
-      <c r="AD2" s="30"/>
-      <c r="AE2" s="30"/>
-      <c r="AF2" s="30"/>
-      <c r="AG2" s="30"/>
-      <c r="AH2" s="30"/>
-      <c r="AI2" s="30"/>
-      <c r="AJ2" s="31"/>
-    </row>
-    <row r="3" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="27"/>
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="27"/>
+      <c r="AD2" s="27"/>
+      <c r="AE2" s="27"/>
+      <c r="AF2" s="27"/>
+      <c r="AG2" s="27"/>
+      <c r="AH2" s="27"/>
+      <c r="AI2" s="27"/>
+      <c r="AJ2" s="28"/>
+    </row>
+    <row r="3" spans="2:36" x14ac:dyDescent="0.3">
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="26" t="s">
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="26" t="s">
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="26" t="s">
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="R3" s="27"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="28"/>
-      <c r="U3" s="26" t="s">
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="V3" s="27"/>
-      <c r="W3" s="27"/>
-      <c r="X3" s="27"/>
-      <c r="Y3" s="28"/>
-      <c r="Z3" s="26" t="s">
+      <c r="V3" s="30"/>
+      <c r="W3" s="30"/>
+      <c r="X3" s="30"/>
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="AA3" s="27"/>
-      <c r="AB3" s="27"/>
-      <c r="AC3" s="28"/>
-      <c r="AD3" s="26" t="s">
+      <c r="AA3" s="30"/>
+      <c r="AB3" s="30"/>
+      <c r="AC3" s="31"/>
+      <c r="AD3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="AE3" s="27"/>
-      <c r="AF3" s="27"/>
-      <c r="AG3" s="27"/>
-      <c r="AH3" s="28"/>
-      <c r="AI3" s="26" t="s">
+      <c r="AE3" s="30"/>
+      <c r="AF3" s="30"/>
+      <c r="AG3" s="30"/>
+      <c r="AH3" s="31"/>
+      <c r="AI3" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="AJ3" s="28"/>
-    </row>
-    <row r="4" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AJ3" s="31"/>
+    </row>
+    <row r="4" spans="2:36" x14ac:dyDescent="0.3">
       <c r="C4" s="8">
         <v>1</v>
       </c>
@@ -1557,7 +1565,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
@@ -1598,7 +1606,7 @@
       <c r="AI5" s="4"/>
       <c r="AJ5" s="5"/>
     </row>
-    <row r="6" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
@@ -1637,7 +1645,7 @@
       <c r="AI6" s="4"/>
       <c r="AJ6" s="5"/>
     </row>
-    <row r="7" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>20</v>
       </c>
@@ -1676,7 +1684,7 @@
       <c r="AI7" s="4"/>
       <c r="AJ7" s="5"/>
     </row>
-    <row r="8" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
@@ -1715,7 +1723,7 @@
       <c r="AI8" s="4"/>
       <c r="AJ8" s="5"/>
     </row>
-    <row r="9" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
@@ -1754,7 +1762,7 @@
       <c r="AI9" s="4"/>
       <c r="AJ9" s="5"/>
     </row>
-    <row r="10" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>23</v>
       </c>
@@ -1793,7 +1801,7 @@
       <c r="AI10" s="4"/>
       <c r="AJ10" s="5"/>
     </row>
-    <row r="11" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>16</v>
       </c>
@@ -1832,7 +1840,7 @@
       <c r="AI11" s="4"/>
       <c r="AJ11" s="5"/>
     </row>
-    <row r="12" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>19</v>
       </c>
@@ -1872,7 +1880,7 @@
       <c r="AI12" s="4"/>
       <c r="AJ12" s="5"/>
     </row>
-    <row r="13" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -1913,7 +1921,7 @@
       <c r="AI13" s="4"/>
       <c r="AJ13" s="5"/>
     </row>
-    <row r="14" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>21</v>
       </c>
@@ -1952,7 +1960,7 @@
       <c r="AI14" s="18"/>
       <c r="AJ14" s="19"/>
     </row>
-    <row r="15" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>11</v>
       </c>
@@ -1993,7 +2001,7 @@
       <c r="AI15" s="4"/>
       <c r="AJ15" s="5"/>
     </row>
-    <row r="16" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
         <v>15</v>
       </c>
@@ -2032,7 +2040,7 @@
       <c r="AI16" s="7"/>
       <c r="AJ16" s="5"/>
     </row>
-    <row r="17" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>13</v>
       </c>
@@ -2098,107 +2106,107 @@
       <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="11" width="3" style="1" customWidth="1"/>
     <col min="12" max="36" width="3" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="C2" s="29" t="s">
+    <row r="2" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="C2" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="30"/>
-      <c r="V2" s="30"/>
-      <c r="W2" s="30"/>
-      <c r="X2" s="30"/>
-      <c r="Y2" s="30"/>
-      <c r="Z2" s="30"/>
-      <c r="AA2" s="30"/>
-      <c r="AB2" s="30"/>
-      <c r="AC2" s="30"/>
-      <c r="AD2" s="30"/>
-      <c r="AE2" s="30"/>
-      <c r="AF2" s="30"/>
-      <c r="AG2" s="30"/>
-      <c r="AH2" s="30"/>
-      <c r="AI2" s="30"/>
-      <c r="AJ2" s="31"/>
-    </row>
-    <row r="3" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="27"/>
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="27"/>
+      <c r="AD2" s="27"/>
+      <c r="AE2" s="27"/>
+      <c r="AF2" s="27"/>
+      <c r="AG2" s="27"/>
+      <c r="AH2" s="27"/>
+      <c r="AI2" s="27"/>
+      <c r="AJ2" s="28"/>
+    </row>
+    <row r="3" spans="2:36" x14ac:dyDescent="0.3">
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="26" t="s">
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="26" t="s">
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="26" t="s">
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="R3" s="27"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="28"/>
-      <c r="U3" s="26" t="s">
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="V3" s="27"/>
-      <c r="W3" s="27"/>
-      <c r="X3" s="27"/>
-      <c r="Y3" s="28"/>
-      <c r="Z3" s="26" t="s">
+      <c r="V3" s="30"/>
+      <c r="W3" s="30"/>
+      <c r="X3" s="30"/>
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="AA3" s="27"/>
-      <c r="AB3" s="27"/>
-      <c r="AC3" s="28"/>
-      <c r="AD3" s="26" t="s">
+      <c r="AA3" s="30"/>
+      <c r="AB3" s="30"/>
+      <c r="AC3" s="31"/>
+      <c r="AD3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="AE3" s="27"/>
-      <c r="AF3" s="27"/>
-      <c r="AG3" s="27"/>
-      <c r="AH3" s="28"/>
-      <c r="AI3" s="26" t="s">
+      <c r="AE3" s="30"/>
+      <c r="AF3" s="30"/>
+      <c r="AG3" s="30"/>
+      <c r="AH3" s="31"/>
+      <c r="AI3" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="AJ3" s="28"/>
-    </row>
-    <row r="4" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AJ3" s="31"/>
+    </row>
+    <row r="4" spans="2:36" x14ac:dyDescent="0.3">
       <c r="C4" s="8">
         <v>1</v>
       </c>
@@ -2302,7 +2310,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
@@ -2343,7 +2351,7 @@
       <c r="AI5" s="20"/>
       <c r="AJ5" s="21"/>
     </row>
-    <row r="6" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
@@ -2382,7 +2390,7 @@
       <c r="AI6" s="20"/>
       <c r="AJ6" s="21"/>
     </row>
-    <row r="7" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>20</v>
       </c>
@@ -2421,7 +2429,7 @@
       <c r="AI7" s="20"/>
       <c r="AJ7" s="21"/>
     </row>
-    <row r="8" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
@@ -2460,7 +2468,7 @@
       <c r="AI8" s="20"/>
       <c r="AJ8" s="21"/>
     </row>
-    <row r="9" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
@@ -2499,7 +2507,7 @@
       <c r="AI9" s="20"/>
       <c r="AJ9" s="21"/>
     </row>
-    <row r="10" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>23</v>
       </c>
@@ -2538,7 +2546,7 @@
       <c r="AI10" s="20"/>
       <c r="AJ10" s="21"/>
     </row>
-    <row r="11" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>16</v>
       </c>
@@ -2577,7 +2585,7 @@
       <c r="AI11" s="20"/>
       <c r="AJ11" s="21"/>
     </row>
-    <row r="12" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>19</v>
       </c>
@@ -2617,7 +2625,7 @@
       <c r="AI12" s="20"/>
       <c r="AJ12" s="21"/>
     </row>
-    <row r="13" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -2658,7 +2666,7 @@
       <c r="AI13" s="20"/>
       <c r="AJ13" s="21"/>
     </row>
-    <row r="14" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>21</v>
       </c>
@@ -2697,7 +2705,7 @@
       <c r="AI14" s="20"/>
       <c r="AJ14" s="21"/>
     </row>
-    <row r="15" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>24</v>
       </c>
@@ -2738,7 +2746,7 @@
       <c r="AI15" s="20"/>
       <c r="AJ15" s="21"/>
     </row>
-    <row r="16" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
         <v>15</v>
       </c>
@@ -2777,7 +2785,7 @@
       <c r="AI16" s="7"/>
       <c r="AJ16" s="21"/>
     </row>
-    <row r="17" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>13</v>
       </c>
